--- a/Схема бд.xlsx
+++ b/Схема бд.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\BernensAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\BernansAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0045D3-A231-46EA-83B9-B2965730EF5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12246C46-90EA-419C-8E77-9BBFB60C8FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" xr2:uid="{59A2B922-0A9C-4FB4-AAF4-EF3A1032F1ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59A2B922-0A9C-4FB4-AAF4-EF3A1032F1ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="БД" sheetId="1" r:id="rId1"/>
+    <sheet name="СТРУКТУРА" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -230,6 +231,69 @@
   </si>
   <si>
     <t>Контакты (переделать)</t>
+  </si>
+  <si>
+    <t>ПРИЛОЖЕНИЯ</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>evaluations</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>Текущее имя</t>
+  </si>
+  <si>
+    <t>Как переводится</t>
+  </si>
+  <si>
+    <t>Смысл</t>
+  </si>
+  <si>
+    <t>пользователи / аккаунты</t>
+  </si>
+  <si>
+    <t>всё, что связано с пользователями</t>
+  </si>
+  <si>
+    <t>автомобили / транспорт</t>
+  </si>
+  <si>
+    <t>авто + мототехника + всё, что с ними связано</t>
+  </si>
+  <si>
+    <t>контент</t>
+  </si>
+  <si>
+    <t>новости, страницы, медиа</t>
+  </si>
+  <si>
+    <t>заявки / оценки</t>
+  </si>
+  <si>
+    <t>заявки, формы, обратная связь</t>
+  </si>
+  <si>
+    <t>услуги</t>
+  </si>
+  <si>
+    <t>услуги компании</t>
+  </si>
+  <si>
+    <t>Автомобили, Мототехника, Фото_авто, Фото_мототехники, Избранное</t>
+  </si>
+  <si>
+    <t>Новости, Контакты</t>
   </si>
 </sst>
 </file>
@@ -290,19 +354,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -312,6 +370,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BAC6EC-C8B8-411F-8A90-AE7FE40C5D64}">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,514 +723,514 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="G27" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="G27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1174,4 +1250,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802C20D6-2B09-4D8E-BA64-D7273FB940AE}">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>